--- a/PfcAPI/FileUploaded/Sampledata.xlsx
+++ b/PfcAPI/FileUploaded/Sampledata.xlsx
@@ -1,15 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Tanmoy\Veridata\PFC_XML\VeridataApi\PfcAPI\FileUploaded\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3A10AD-12D5-4F1C-8C1E-20D16FDEDA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Customers" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Candidate" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -72,8 +76,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -112,13 +116,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -180,43 +182,45 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J2" totalsRowShown="0">
-  <autoFilter ref="A1:J2">
-    <filterColumn colId="1"/>
-    <filterColumn colId="5"/>
-    <filterColumn colId="7"/>
-    <filterColumn colId="8"/>
-    <filterColumn colId="9"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J2" totalsRowShown="0">
+  <autoFilter ref="A1:J2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
-    <tableColumn id="2" name="Candidate ID" dataDxfId="9"/>
-    <tableColumn id="6" name="Company Name" dataDxfId="8"/>
-    <tableColumn id="1" name="Name" dataDxfId="7"/>
-    <tableColumn id="3" name="EmailId" dataDxfId="6" dataCellStyle="Hyperlink"/>
-    <tableColumn id="5" name="Phone No" dataDxfId="5"/>
-    <tableColumn id="8" name="Fresher" dataDxfId="4"/>
-    <tableColumn id="4" name="Date Of Joining" dataDxfId="3"/>
-    <tableColumn id="7" name="level1 Email" dataDxfId="2"/>
-    <tableColumn id="9" name="level2 Email" dataDxfId="1"/>
-    <tableColumn id="10" name="level3 Email" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Candidate ID" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Company Name" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EmailId" dataDxfId="6" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Phone No" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Fresher" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Date Of Joining" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="level1 Email" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="level2 Email" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="level3 Email" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -254,7 +258,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -288,6 +292,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -322,9 +327,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -497,14 +503,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -518,7 +524,7 @@
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -528,57 +534,55 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="J2" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -586,44 +590,4 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/PfcAPI/FileUploaded/Sampledata.xlsx
+++ b/PfcAPI/FileUploaded/Sampledata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Tanmoy\Veridata\PFC_XML\VeridataApi\PfcAPI\FileUploaded\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Tanmoy\Veridata\Veridata_ALL\PfcAPI\FileUploaded\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3A10AD-12D5-4F1C-8C1E-20D16FDEDA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B762D576-E7A3-4C57-B7F9-FD12BB5802D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,15 +49,9 @@
     <t>9045761233</t>
   </si>
   <si>
-    <t>12-07-2023</t>
-  </si>
-  <si>
     <t>Company Name</t>
   </si>
   <si>
-    <t>Elogix pvt. ltd</t>
-  </si>
-  <si>
     <t>Fresher</t>
   </si>
   <si>
@@ -71,6 +65,12 @@
   </si>
   <si>
     <t>level3 Email</t>
+  </si>
+  <si>
+    <t>Elogix Software Pvt Ltd</t>
+  </si>
+  <si>
+    <t>12-07-2025</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -541,19 +541,19 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
         <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -561,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -573,10 +573,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1"/>
     </row>
